--- a/heb_rsvp.xlsx
+++ b/heb_rsvp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5694ab68bbf74d3/Desktop/status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04424A3-80BE-49EB-B21C-EA6D78817518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F566BD0B-FEB3-48FC-9A57-24A91789678A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4920F1A0-BEF1-4440-958E-BBD73379A7C3}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">שם מלא </t>
   </si>
   <si>
-    <t>טלפון</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -55,6 +52,15 @@
   </si>
   <si>
     <t>שובל גרבלי</t>
+  </si>
+  <si>
+    <t>מספר טלפון</t>
+  </si>
+  <si>
+    <t>050-7676706</t>
+  </si>
+  <si>
+    <t>058-6208430</t>
   </si>
 </sst>
 </file>
@@ -91,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,45 +417,45 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>507676706</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>586208430</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/heb_rsvp.xlsx
+++ b/heb_rsvp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5694ab68bbf74d3/Desktop/status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F566BD0B-FEB3-48FC-9A57-24A91789678A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F566BD0B-FEB3-48FC-9A57-24A91789678A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28C6A5AA-102A-4CD7-8D36-E10943003783}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4920F1A0-BEF1-4440-958E-BBD73379A7C3}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>מספר טלפון</t>
   </si>
   <si>
-    <t>050-7676706</t>
-  </si>
-  <si>
-    <t>058-6208430</t>
+    <t>972507676706</t>
+  </si>
+  <si>
+    <t>972586208430</t>
   </si>
 </sst>
 </file>
@@ -417,12 +417,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
